--- a/data/trans_orig/P36BPD08_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD08_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>590878</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>572125</v>
+        <v>572080</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>606395</v>
+        <v>605999</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.8597528030038174</v>
+        <v>0.8597528030038173</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8324660808454762</v>
+        <v>0.8324012794047073</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.882330963211719</v>
+        <v>0.8817546667082065</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1196</v>
@@ -762,19 +762,19 @@
         <v>709155</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>700597</v>
+        <v>699956</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>716252</v>
+        <v>715780</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.9678357250313357</v>
+        <v>0.9678357250313355</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9561571996234937</v>
+        <v>0.9552814641040426</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9775215972394592</v>
+        <v>0.9768779641190573</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1801</v>
@@ -783,19 +783,19 @@
         <v>1300033</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1279377</v>
+        <v>1280102</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1319248</v>
+        <v>1317999</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.9155242484493713</v>
+        <v>0.9155242484493714</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9009778191291367</v>
+        <v>0.9014888226330817</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.929056052137299</v>
+        <v>0.9281769076561225</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>24265</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>16559</v>
+        <v>16980</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>34534</v>
+        <v>34769</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.03530694297320373</v>
+        <v>0.03530694297320372</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02409430669404933</v>
+        <v>0.0247067643135587</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05024841488410823</v>
+        <v>0.05059006152313457</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>18</v>
@@ -833,19 +833,19 @@
         <v>10305</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5962</v>
+        <v>6418</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>16770</v>
+        <v>15641</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01406374856308143</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.008136709157665326</v>
+        <v>0.008758828988915644</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02288727287564369</v>
+        <v>0.02134587342431291</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>51</v>
@@ -854,19 +854,19 @@
         <v>34570</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>25348</v>
+        <v>25772</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>45676</v>
+        <v>45980</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02434532539376975</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01785109906701373</v>
+        <v>0.01814968936369672</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0321663804723019</v>
+        <v>0.03238026257365216</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>72122</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>58555</v>
+        <v>58922</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>90366</v>
+        <v>88908</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.104940254022979</v>
+        <v>0.1049402540229789</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.08520036442911759</v>
+        <v>0.08573413078835436</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1314857793489433</v>
+        <v>0.1293653098575047</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>24</v>
@@ -904,19 +904,19 @@
         <v>13263</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>8510</v>
+        <v>8687</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>20094</v>
+        <v>20378</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01810052640558291</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01161363759961861</v>
+        <v>0.01185639437805244</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02742361102728728</v>
+        <v>0.02781075321021693</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>112</v>
@@ -925,19 +925,19 @@
         <v>85384</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>69564</v>
+        <v>70681</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>103780</v>
+        <v>102259</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.06013042615685878</v>
+        <v>0.0601304261568588</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.04898925043129344</v>
+        <v>0.04977592689811052</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.07308501971329918</v>
+        <v>0.07201368989754113</v>
       </c>
     </row>
     <row r="7">
@@ -1029,19 +1029,19 @@
         <v>889196</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>861094</v>
+        <v>861747</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>912143</v>
+        <v>910894</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8496061309220744</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8227555401305816</v>
+        <v>0.8233795768905563</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8715310960611909</v>
+        <v>0.8703377885537111</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1462</v>
@@ -1050,19 +1050,19 @@
         <v>1033784</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1022052</v>
+        <v>1022693</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1042497</v>
+        <v>1042741</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9653968130390889</v>
+        <v>0.9653968130390888</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9544408868453522</v>
+        <v>0.9550400920664037</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.973534100416598</v>
+        <v>0.9737615786918536</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2269</v>
@@ -1071,19 +1071,19 @@
         <v>1922980</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1895343</v>
+        <v>1892474</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1948472</v>
+        <v>1948979</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9081642494611936</v>
+        <v>0.9081642494611937</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8951123197493323</v>
+        <v>0.8937571882254225</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.920203362622016</v>
+        <v>0.9204431302199371</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>65432</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>47308</v>
+        <v>48624</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>84377</v>
+        <v>87320</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.06251879920974145</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.04520194695112923</v>
+        <v>0.04645920993342155</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.0806204960565077</v>
+        <v>0.08343210450228233</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>29</v>
@@ -1121,19 +1121,19 @@
         <v>19513</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>12974</v>
+        <v>12778</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>26823</v>
+        <v>27404</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01822186724455956</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01211553722479125</v>
+        <v>0.01193233131139592</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.0250489978623819</v>
+        <v>0.02559080014355621</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>87</v>
@@ -1142,19 +1142,19 @@
         <v>84945</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>67016</v>
+        <v>67600</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>106328</v>
+        <v>109336</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.04011678079590175</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.03164961028988148</v>
+        <v>0.03192523853916578</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.05021544197484733</v>
+        <v>0.05163602913856147</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>91970</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>74272</v>
+        <v>75503</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>111982</v>
+        <v>113045</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08787506986818404</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07096534350973713</v>
+        <v>0.07214167836909206</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1069964316308782</v>
+        <v>0.108011745710042</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>25</v>
@@ -1192,19 +1192,19 @@
         <v>17542</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11034</v>
+        <v>11578</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>26677</v>
+        <v>26145</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01638131971635168</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01030454268640232</v>
+        <v>0.01081242425518002</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02491269302073436</v>
+        <v>0.02441554519487888</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>122</v>
@@ -1213,19 +1213,19 @@
         <v>109512</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>91680</v>
+        <v>91041</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>132436</v>
+        <v>131352</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.0517189697429047</v>
+        <v>0.05171896974290471</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04329762434768272</v>
+        <v>0.04299575113031215</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06254560967881939</v>
+        <v>0.06203355221675973</v>
       </c>
     </row>
     <row r="11">
@@ -1317,19 +1317,19 @@
         <v>712530</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>690023</v>
+        <v>690565</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>732520</v>
+        <v>730045</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.8887284199859453</v>
+        <v>0.8887284199859454</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8606553502035139</v>
+        <v>0.8613314805936487</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9136622025073883</v>
+        <v>0.910574285489071</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>999</v>
@@ -1338,19 +1338,19 @@
         <v>777446</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>766690</v>
+        <v>765903</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>786613</v>
+        <v>786167</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.958507772360091</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9452468168682295</v>
+        <v>0.9442769806177889</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9698100029557599</v>
+        <v>0.9692596724770558</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1591</v>
@@ -1359,19 +1359,19 @@
         <v>1489976</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1464588</v>
+        <v>1465484</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1510096</v>
+        <v>1510712</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9238205657387133</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9080799031139486</v>
+        <v>0.9086349277282136</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9362958555403749</v>
+        <v>0.9366774039856373</v>
       </c>
     </row>
     <row r="13">
@@ -1388,19 +1388,19 @@
         <v>44305</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>29567</v>
+        <v>31138</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>63791</v>
+        <v>61810</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05526142366228776</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03687796277689129</v>
+        <v>0.03883742593493011</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07956586132550877</v>
+        <v>0.07709478919920291</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>29</v>
@@ -1409,19 +1409,19 @@
         <v>20363</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>13596</v>
+        <v>14002</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>28558</v>
+        <v>28833</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02510515145961615</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01676300925237594</v>
+        <v>0.01726275301439116</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03520840313766906</v>
+        <v>0.03554753416511876</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>64</v>
@@ -1430,19 +1430,19 @@
         <v>64668</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>48773</v>
+        <v>47747</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>85593</v>
+        <v>85109</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04009578707365707</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03024055486377488</v>
+        <v>0.02960425800473934</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05306943339867849</v>
+        <v>0.05276977701027361</v>
       </c>
     </row>
     <row r="14">
@@ -1459,19 +1459,19 @@
         <v>44906</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>32917</v>
+        <v>34092</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>60503</v>
+        <v>60048</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.05601015635176691</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04105650315308611</v>
+        <v>0.04252294109529246</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.07546496947410419</v>
+        <v>0.07489652881175675</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>17</v>
@@ -1480,19 +1480,19 @@
         <v>13292</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>7914</v>
+        <v>7723</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>21194</v>
+        <v>20638</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01638707618029286</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.009757332561911013</v>
+        <v>0.009522010567047445</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02612999177959472</v>
+        <v>0.02544411061451814</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>65</v>
@@ -1501,19 +1501,19 @@
         <v>58197</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>46102</v>
+        <v>46199</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>74230</v>
+        <v>74035</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.03608364718762963</v>
+        <v>0.03608364718762964</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02858426420889147</v>
+        <v>0.02864425189867947</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04602450245077657</v>
+        <v>0.04590362818835515</v>
       </c>
     </row>
     <row r="15">
@@ -1605,19 +1605,19 @@
         <v>879481</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>859779</v>
+        <v>859432</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>897272</v>
+        <v>895866</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.8908130793356479</v>
+        <v>0.8908130793356477</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8708570447003927</v>
+        <v>0.8705061315276114</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9088336869030761</v>
+        <v>0.9074091111976793</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1506</v>
@@ -1626,19 +1626,19 @@
         <v>1078353</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1065246</v>
+        <v>1065727</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1087740</v>
+        <v>1088473</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.9650797907191385</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.9533496871948158</v>
+        <v>0.9537801316611876</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9734805100060195</v>
+        <v>0.9741369184520546</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2378</v>
@@ -1647,19 +1647,19 @@
         <v>1957835</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1930769</v>
+        <v>1934856</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1977866</v>
+        <v>1977691</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.930241725927057</v>
+        <v>0.9302417259270568</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9173814254178873</v>
+        <v>0.9193236984720601</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.939759390493551</v>
+        <v>0.9396759167230584</v>
       </c>
     </row>
     <row r="17">
@@ -1676,19 +1676,19 @@
         <v>32758</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>23332</v>
+        <v>23742</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>44199</v>
+        <v>46404</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03318053405697351</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02363303900753742</v>
+        <v>0.02404788557661454</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04476897573476925</v>
+        <v>0.04700180747440716</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>29</v>
@@ -1697,19 +1697,19 @@
         <v>19177</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>13365</v>
+        <v>13100</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>27001</v>
+        <v>26769</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0171621820016654</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01196121940983597</v>
+        <v>0.01172401560661727</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02416471048142714</v>
+        <v>0.02395722625779647</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>68</v>
@@ -1718,19 +1718,19 @@
         <v>51935</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>40306</v>
+        <v>39984</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>68107</v>
+        <v>64489</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02467629399571346</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01915080307267029</v>
+        <v>0.01899805864905635</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03236011625660926</v>
+        <v>0.03064127847604624</v>
       </c>
     </row>
     <row r="18">
@@ -1747,19 +1747,19 @@
         <v>75040</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>60435</v>
+        <v>60288</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>91746</v>
+        <v>92274</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.0760063866073787</v>
+        <v>0.07600638660737867</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.06121340544497782</v>
+        <v>0.06106525302351006</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.09292832499969442</v>
+        <v>0.09346269071162788</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>25</v>
@@ -1768,19 +1768,19 @@
         <v>19842</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>12765</v>
+        <v>12835</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>30752</v>
+        <v>30868</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01775802727919627</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01142407515661741</v>
+        <v>0.01148665329120187</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.02752200266243607</v>
+        <v>0.02762567857793363</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>117</v>
@@ -1789,19 +1789,19 @@
         <v>94882</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>78269</v>
+        <v>77113</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>116308</v>
+        <v>114607</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.04508198007722949</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.03718872969830051</v>
+        <v>0.03663953503567488</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.05526230163534953</v>
+        <v>0.05445396226849594</v>
       </c>
     </row>
     <row r="19">
@@ -1893,19 +1893,19 @@
         <v>3072085</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3026693</v>
+        <v>3034612</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3111405</v>
+        <v>3110837</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8720372345984299</v>
+        <v>0.87203723459843</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8591522203833669</v>
+        <v>0.8614001082694799</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8831985419258347</v>
+        <v>0.8830373885104258</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>5163</v>
@@ -1914,19 +1914,19 @@
         <v>3598737</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3579153</v>
+        <v>3578958</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>3616697</v>
+        <v>3617078</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9642835079762527</v>
+        <v>0.9642835079762528</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9590361025761077</v>
+        <v>0.9589836063463009</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9690958837027084</v>
+        <v>0.9691979104183844</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>8039</v>
@@ -1935,19 +1935,19 @@
         <v>6670822</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>6627363</v>
+        <v>6622110</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>6718176</v>
+        <v>6715835</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9194900392254699</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.913499807592221</v>
+        <v>0.9127757524497939</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.926017161805702</v>
+        <v>0.9256944846270765</v>
       </c>
     </row>
     <row r="21">
@@ -1964,19 +1964,19 @@
         <v>166761</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>140308</v>
+        <v>141724</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>198855</v>
+        <v>197389</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.04733653161148014</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03982757104770126</v>
+        <v>0.04022967954975785</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.05644666748098013</v>
+        <v>0.05603046768366712</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>105</v>
@@ -1985,19 +1985,19 @@
         <v>69357</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>57095</v>
+        <v>57251</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>83483</v>
+        <v>83897</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01858419699421892</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01529866731759976</v>
+        <v>0.01534049848325184</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.0223692584130101</v>
+        <v>0.02248015952428194</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>270</v>
@@ -2006,19 +2006,19 @@
         <v>236118</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>204350</v>
+        <v>205146</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>269623</v>
+        <v>270106</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.03254591875305125</v>
+        <v>0.03254591875305126</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02816711247215103</v>
+        <v>0.02827685339289562</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.03716412057065639</v>
+        <v>0.03723077176869122</v>
       </c>
     </row>
     <row r="22">
@@ -2035,19 +2035,19 @@
         <v>284037</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>255847</v>
+        <v>254642</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>320325</v>
+        <v>316825</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08062623379008986</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07262437911128651</v>
+        <v>0.07228227400994944</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09092703711063443</v>
+        <v>0.08993354750321381</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>91</v>
@@ -2056,19 +2056,19 @@
         <v>63938</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>51017</v>
+        <v>51593</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>77870</v>
+        <v>79995</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01713229502952839</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0136699064586027</v>
+        <v>0.01382427982419036</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02086527701192705</v>
+        <v>0.02143459895002154</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>416</v>
@@ -2077,19 +2077,19 @@
         <v>347975</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>314193</v>
+        <v>310782</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>384475</v>
+        <v>384907</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04796404202147892</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0433075932847836</v>
+        <v>0.0428374581684962</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05299507070980348</v>
+        <v>0.05305469585556552</v>
       </c>
     </row>
     <row r="23">
